--- a/Technical_Documentation/Requirements/System requirement specification/UD-SRS-traceability.xlsx
+++ b/Technical_Documentation/Requirements/System requirement specification/UD-SRS-traceability.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amaliekoch/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amaliekoch/Documents/GitHub/ST6/Technical_Documentation/Requirements/System requirement specification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB50D2D-4278-E64A-8118-A52B1A462900}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6BCF43-A188-F444-A86F-ADAE39513C0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28420" windowHeight="15800" xr2:uid="{B54773BD-5F2B-AF4D-8A1D-6E44CC84DFDA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t xml:space="preserve">SRS ID </t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>UD-SRS-14</t>
-  </si>
-  <si>
-    <t>UD-SRS-15</t>
   </si>
   <si>
     <t xml:space="preserve">The interface shall recommend and visualize at least three treatment strategies for the specialist </t>
@@ -164,9 +161,6 @@
     <t xml:space="preserve">UD-CRS-06 </t>
   </si>
   <si>
-    <t xml:space="preserve">The output of the system shall be graphically represented </t>
-  </si>
-  <si>
     <t>UD-SRS-16</t>
   </si>
   <si>
@@ -198,10 +192,6 @@
   </si>
   <si>
     <t>UD-CRS-07</t>
-  </si>
-  <si>
-    <t>UD-CRS-06 
-UD-CRS-07</t>
   </si>
   <si>
     <t xml:space="preserve">Ucon Sheet </t>
@@ -256,6 +246,11 @@
   </si>
   <si>
     <t xml:space="preserve">User interface "Estimate effectiveness score" shall contain information about stimulation paradigm, parameters and effectiveness score to give the specialist the opportunity to get a quick overview. </t>
+  </si>
+  <si>
+    <t>UD-CRS-03
+UD-CRS-06
+UD-CRS-07</t>
   </si>
 </sst>
 </file>
@@ -767,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865C1865-B44B-7648-9539-419D8238798C}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -789,7 +784,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>3</v>
@@ -803,10 +798,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -817,10 +812,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -831,10 +826,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -845,10 +840,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -859,13 +854,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>28</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -875,10 +870,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -889,24 +884,24 @@
         <v>11</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -917,10 +912,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -931,10 +926,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -945,10 +940,10 @@
         <v>15</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -959,10 +954,10 @@
         <v>16</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -973,13 +968,13 @@
         <v>17</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D14" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -989,38 +984,32 @@
         <v>18</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>54</v>
-      </c>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -1028,13 +1017,13 @@
     </row>
     <row r="18" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -1042,45 +1031,45 @@
     </row>
     <row r="19" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="D20" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="14"/>
@@ -1088,13 +1077,13 @@
     </row>
     <row r="22" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="14"/>
@@ -1102,13 +1091,13 @@
     </row>
     <row r="23" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -1116,14 +1105,14 @@
     </row>
     <row r="24" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>

--- a/Technical_Documentation/Requirements/System requirement specification/UD-SRS-traceability.xlsx
+++ b/Technical_Documentation/Requirements/System requirement specification/UD-SRS-traceability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amaliekoch/Documents/GitHub/ST6/Technical_Documentation/Requirements/System requirement specification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6BCF43-A188-F444-A86F-ADAE39513C0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7FB34A-0F02-D04E-9660-7670433B7A12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28420" windowHeight="15800" xr2:uid="{B54773BD-5F2B-AF4D-8A1D-6E44CC84DFDA}"/>
   </bookViews>
@@ -431,9 +431,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -444,6 +441,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865C1865-B44B-7648-9539-419D8238798C}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -797,7 +797,7 @@
       <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -839,7 +839,7 @@
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -869,7 +869,7 @@
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -911,7 +911,7 @@
       <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -939,7 +939,7 @@
       <c r="A12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -967,7 +967,7 @@
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -995,7 +995,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
-      <c r="B16" s="16"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="4"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -1019,7 +1019,7 @@
       <c r="A18" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1065,7 +1065,7 @@
       <c r="A21" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>56</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1079,7 +1079,7 @@
       <c r="A22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -1093,7 +1093,7 @@
       <c r="A23" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>62</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1107,11 +1107,11 @@
       <c r="A24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E24" s="14"/>

--- a/Technical_Documentation/Requirements/System requirement specification/UD-SRS-traceability.xlsx
+++ b/Technical_Documentation/Requirements/System requirement specification/UD-SRS-traceability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amaliekoch/Documents/GitHub/ST6/Technical_Documentation/Requirements/System requirement specification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7FB34A-0F02-D04E-9660-7670433B7A12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F643D2B-60CB-054E-BCDB-23EECAAD8943}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28420" windowHeight="15800" xr2:uid="{B54773BD-5F2B-AF4D-8A1D-6E44CC84DFDA}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28420" windowHeight="15740" xr2:uid="{B54773BD-5F2B-AF4D-8A1D-6E44CC84DFDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
   <si>
     <t xml:space="preserve">SRS ID </t>
   </si>
@@ -93,13 +93,6 @@
     <t>UD-SRS-14</t>
   </si>
   <si>
-    <t xml:space="preserve">The interface shall recommend and visualize at least three treatment strategies for the specialist </t>
-  </si>
-  <si>
-    <t>The interface shall rank the recommended
- treatment strategies from best expected effect</t>
-  </si>
-  <si>
     <t>The interface shall convey practical information about the treatment to the specialist. The practical information shall include a describtion of the electrode and  typical usage.</t>
   </si>
   <si>
@@ -112,19 +105,7 @@
     <t>UD-CRS-03</t>
   </si>
   <si>
-    <t xml:space="preserve">The predetermined parameters defined by InnoCon Medical shall be implemented in the algorithm and outputted on the interface. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Udecide system shall consist of three user interfaces: Login, Choose patient and Estimate effectiveness score </t>
-  </si>
-  <si>
     <t xml:space="preserve">Use case </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The output shall be visualized for the specialist in a list of the recommended treatment strategies </t>
-  </si>
-  <si>
-    <t>The output shall be conveyed through graphs and graphical illustrations</t>
   </si>
   <si>
     <t xml:space="preserve">The information from the output shall be conveyed in medical terms </t>
@@ -149,9 +130,6 @@
     <t xml:space="preserve">Fluid/urination schedule </t>
   </si>
   <si>
-    <t xml:space="preserve">The system shall be able to take inputs to the algorithm entered by the specialist. Those inputs shall be: sex, age, OAB symptoms and data collected from specific OAB-test in clinical practice  </t>
-  </si>
-  <si>
     <t>UD-CRS-05</t>
   </si>
   <si>
@@ -185,15 +163,6 @@
     <t>UD-SRS-23</t>
   </si>
   <si>
-    <t xml:space="preserve">The Udecide system shall inform the specialist, which impact the treatment will have for the patient's every day. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The recommended treatment strategies shall contain specific stimulation paradigm, specific stimulation parameters and an attached effectiveness score. The effectiveness score shall be represented as a percentage.  </t>
-  </si>
-  <si>
-    <t>UD-CRS-07</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ucon Sheet </t>
   </si>
   <si>
@@ -206,15 +175,9 @@
     <t xml:space="preserve">Post-market-surveillance </t>
   </si>
   <si>
-    <t xml:space="preserve">Patient preferencenses shall be an opportunity to input through check boxes . </t>
-  </si>
-  <si>
     <t>UD-CRS-10</t>
   </si>
   <si>
-    <t xml:space="preserve">The recommended treatment with the least time of stimulation pr. day shall be highlighted on the interface. Time of stimulation pr. day is calculated based on stored data in the database.  </t>
-  </si>
-  <si>
     <t>UD-CRS-11</t>
   </si>
   <si>
@@ -227,30 +190,82 @@
     <t xml:space="preserve">The "Choose patient" interface shall include input fields for creating a new patient profile. Those field shall be: "CPR", "Name" and "Sex".  The patient profile shall be stored in the database. </t>
   </si>
   <si>
+    <t xml:space="preserve">Additional documentation 
+for the requirement </t>
+  </si>
+  <si>
+    <t>UD-CRS-03
+UD-CRS-06
+UD-CRS-07</t>
+  </si>
+  <si>
+    <t>The interface shall rank the recommended
+ treatment strategies from best to least expected effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The interface shall recommend and visualize three treatment strategies for the specialist </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The predetermined parameters defined by InnoCon Medical shall be shown on the interface. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Udecide system shall consist of three functionalities: login, choose patient and estimate effectiveness score </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user interface "Estimate effectiveness score" shall contain information about stimulation paradigm, parameters and effectiveness score to give the specialist the opportunity to get an overview. </t>
+  </si>
+  <si>
+    <t>The output shall be conveyed through  graphical illustrations</t>
+  </si>
+  <si>
+    <t>UD-SRS-15</t>
+  </si>
+  <si>
+    <t>Udecide shall have a range check on the data input from the specialist</t>
+  </si>
+  <si>
+    <t>UD-H3</t>
+  </si>
+  <si>
+    <t>The system shall be able to update the algorithm with new data on the research field periodically</t>
+  </si>
+  <si>
+    <t>UD-H4</t>
+  </si>
+  <si>
     <t xml:space="preserve">UD-CRS-09 
-UD-CRS-11
 UD-CRS-12
 UD-CRS-13
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The "Login" interface shall consist of a "Username" and "Password" to enter the Udecide system, to secure protection against unauthorised acces.  </t>
+    <t>Patient preferencenses regarding electrode type, shall be an opportunity to input to the Udecide system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The recommended treatment with the least time of stimulation pr. day shall be highlighted on the interface. </t>
+  </si>
+  <si>
+    <t>H6</t>
   </si>
   <si>
     <t xml:space="preserve">MDR 2017-745 chapter 2,
- article 17. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional documentation 
-for the requirement </t>
-  </si>
-  <si>
-    <t xml:space="preserve">User interface "Estimate effectiveness score" shall contain information about stimulation paradigm, parameters and effectiveness score to give the specialist the opportunity to get a quick overview. </t>
-  </si>
-  <si>
-    <t>UD-CRS-03
-UD-CRS-06
-UD-CRS-07</t>
+ article 17. Used to to secure protection against unauthorised acces. </t>
+  </si>
+  <si>
+    <t>The Udecide system shall validate the user access is granted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system shall be able to take inputs to the algorithm entered by the specialist. Those inputs shall be: sex, age, OAB symptoms and data collected from clinical practice  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The algorithm shall be based on data from UCon collected by InnoCon Medical </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Udecide system shall handle patient data in accordance to general data protection regulation (GDPR) </t>
+  </si>
+  <si>
+    <t>UD-CRS-02 
+UD-CRS-09</t>
   </si>
 </sst>
 </file>
@@ -393,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -410,7 +425,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -762,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865C1865-B44B-7648-9539-419D8238798C}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -774,348 +788,356 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" ht="170" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="C22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="D24" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="1:6" ht="170" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>

--- a/Technical_Documentation/Requirements/System requirement specification/UD-SRS-traceability.xlsx
+++ b/Technical_Documentation/Requirements/System requirement specification/UD-SRS-traceability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amaliekoch/Documents/GitHub/ST6/Technical_Documentation/Requirements/System requirement specification/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fie_b\Documents\GitHub\ST6\Technical_Documentation\Requirements\System requirement specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F643D2B-60CB-054E-BCDB-23EECAAD8943}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7592A06-7486-40EB-AD3D-C24F1D3E4972}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28420" windowHeight="15740" xr2:uid="{B54773BD-5F2B-AF4D-8A1D-6E44CC84DFDA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B54773BD-5F2B-AF4D-8A1D-6E44CC84DFDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -34,21 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
   <si>
     <t xml:space="preserve">SRS ID </t>
   </si>
   <si>
     <t xml:space="preserve">Requirement </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRS# </t>
-  </si>
-  <si>
-    <t>RM#</t>
-  </si>
-  <si>
-    <t>VeTPr#</t>
   </si>
   <si>
     <t>UD-SRS-01</t>
@@ -245,9 +236,6 @@
     <t xml:space="preserve">The recommended treatment with the least time of stimulation pr. day shall be highlighted on the interface. </t>
   </si>
   <si>
-    <t>H6</t>
-  </si>
-  <si>
     <t xml:space="preserve">MDR 2017-745 chapter 2,
  article 17. Used to to secure protection against unauthorised acces. </t>
   </si>
@@ -266,6 +254,45 @@
   <si>
     <t>UD-CRS-02 
 UD-CRS-09</t>
+  </si>
+  <si>
+    <t>Risk Management
+UD-H#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UD-CRS# </t>
+  </si>
+  <si>
+    <t>UD-VeTPr#</t>
+  </si>
+  <si>
+    <t>UD-H1</t>
+  </si>
+  <si>
+    <t>UD-H2</t>
+  </si>
+  <si>
+    <t>UD-CRS-01
+UD-CRS-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UD-CRS-09 
+</t>
+  </si>
+  <si>
+    <t>UD-CRS-04
+UD-CRS-05</t>
+  </si>
+  <si>
+    <t>UD-CRS-01
+UD-CRS-06</t>
+  </si>
+  <si>
+    <t>UD-H6</t>
+  </si>
+  <si>
+    <t>UD-H4
+UD-H5</t>
   </si>
 </sst>
 </file>
@@ -438,13 +465,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -458,6 +481,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -776,376 +805,392 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865C1865-B44B-7648-9539-419D8238798C}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="36.6640625" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="B3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="C10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="16" t="s">
+      <c r="B16" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="C16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" ht="155" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" ht="62" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" ht="170" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="C22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="B23" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" ht="62" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E24" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
     </row>
   </sheetData>

--- a/Technical_Documentation/Requirements/System requirement specification/UD-SRS-traceability.xlsx
+++ b/Technical_Documentation/Requirements/System requirement specification/UD-SRS-traceability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amaliekoch/Documents/GitHub/ST6/Technical_Documentation/Requirements/System requirement specification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F643D2B-60CB-054E-BCDB-23EECAAD8943}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CABC47-92C1-804A-8EE8-06FAF983CE0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28420" windowHeight="15740" xr2:uid="{B54773BD-5F2B-AF4D-8A1D-6E44CC84DFDA}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="14960" windowHeight="15740" xr2:uid="{B54773BD-5F2B-AF4D-8A1D-6E44CC84DFDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865C1865-B44B-7648-9539-419D8238798C}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Technical_Documentation/Requirements/System requirement specification/UD-SRS-traceability.xlsx
+++ b/Technical_Documentation/Requirements/System requirement specification/UD-SRS-traceability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amaliekoch/Documents/GitHub/ST6/Technical_Documentation/Requirements/System requirement specification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CABC47-92C1-804A-8EE8-06FAF983CE0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54EC6C6-3DFF-1646-B560-0421C202CC84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="14960" windowHeight="15740" xr2:uid="{B54773BD-5F2B-AF4D-8A1D-6E44CC84DFDA}"/>
   </bookViews>
@@ -93,9 +93,6 @@
     <t>UD-SRS-14</t>
   </si>
   <si>
-    <t>The interface shall convey practical information about the treatment to the specialist. The practical information shall include a describtion of the electrode and  typical usage.</t>
-  </si>
-  <si>
     <t>UD-CRS-01</t>
   </si>
   <si>
@@ -266,6 +263,9 @@
   <si>
     <t>UD-CRS-02 
 UD-CRS-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The interface shall convey practical information about the treatment to the specialist. </t>
   </si>
 </sst>
 </file>
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865C1865-B44B-7648-9539-419D8238798C}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -798,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>3</v>
@@ -812,10 +812,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -826,24 +826,24 @@
         <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -854,10 +854,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -868,13 +868,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>23</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -884,10 +884,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -898,10 +898,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -912,10 +912,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -926,10 +926,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -940,10 +940,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -954,10 +954,10 @@
         <v>15</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -968,10 +968,10 @@
         <v>16</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -982,13 +982,13 @@
         <v>17</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -998,10 +998,10 @@
         <v>18</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -1009,13 +1009,13 @@
     </row>
     <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="C16" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -1023,13 +1023,13 @@
     </row>
     <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -1037,13 +1037,13 @@
     </row>
     <row r="18" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -1051,45 +1051,45 @@
     </row>
     <row r="19" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="13"/>
@@ -1097,13 +1097,13 @@
     </row>
     <row r="22" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="13"/>
@@ -1111,13 +1111,13 @@
     </row>
     <row r="23" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
@@ -1125,16 +1125,16 @@
     </row>
     <row r="24" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>

--- a/Technical_Documentation/Requirements/System requirement specification/UD-SRS-traceability.xlsx
+++ b/Technical_Documentation/Requirements/System requirement specification/UD-SRS-traceability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amaliekoch/Documents/GitHub/ST6/Technical_Documentation/Requirements/System requirement specification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54EC6C6-3DFF-1646-B560-0421C202CC84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E055F18-774E-7442-B44E-8DE040994A53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="14960" windowHeight="15740" xr2:uid="{B54773BD-5F2B-AF4D-8A1D-6E44CC84DFDA}"/>
   </bookViews>
@@ -206,9 +206,6 @@
     <t xml:space="preserve">The predetermined parameters defined by InnoCon Medical shall be shown on the interface. </t>
   </si>
   <si>
-    <t xml:space="preserve">The Udecide system shall consist of three functionalities: login, choose patient and estimate effectiveness score </t>
-  </si>
-  <si>
     <t xml:space="preserve">The user interface "Estimate effectiveness score" shall contain information about stimulation paradigm, parameters and effectiveness score to give the specialist the opportunity to get an overview. </t>
   </si>
   <si>
@@ -266,6 +263,9 @@
   </si>
   <si>
     <t xml:space="preserve">The interface shall convey practical information about the treatment to the specialist. </t>
+  </si>
+  <si>
+    <t>The Udecide system shall consist of four functionalities: login, choose patient,  estimate effectiveness score and report effect</t>
   </si>
 </sst>
 </file>
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865C1865-B44B-7648-9539-419D8238798C}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -840,7 +840,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>19</v>
@@ -863,12 +863,12 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>21</v>
@@ -884,7 +884,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>21</v>
@@ -898,10 +898,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -912,7 +912,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>51</v>
@@ -982,7 +982,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>30</v>
@@ -1009,13 +1009,13 @@
     </row>
     <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="C16" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -1026,10 +1026,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -1040,7 +1040,7 @@
         <v>34</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>48</v>
@@ -1073,7 +1073,7 @@
         <v>47</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>44</v>
@@ -1086,7 +1086,7 @@
         <v>37</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>45</v>
@@ -1100,7 +1100,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>46</v>
@@ -1128,13 +1128,13 @@
         <v>40</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>67</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>

--- a/Technical_Documentation/Requirements/System requirement specification/UD-SRS-traceability.xlsx
+++ b/Technical_Documentation/Requirements/System requirement specification/UD-SRS-traceability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amaliekoch/Documents/GitHub/ST6/Technical_Documentation/Requirements/System requirement specification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E055F18-774E-7442-B44E-8DE040994A53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD7C8EB-5689-394E-BD35-D90419BB01B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="14960" windowHeight="15740" xr2:uid="{B54773BD-5F2B-AF4D-8A1D-6E44CC84DFDA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
   <si>
     <t xml:space="preserve">SRS ID </t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>UD-SRS-13</t>
-  </si>
-  <si>
-    <t>UD-SRS-14</t>
   </si>
   <si>
     <t>UD-CRS-01</t>
@@ -128,12 +125,6 @@
   </si>
   <si>
     <t>UD-CRS-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The output of the system shall represent pros and cons for each recommended treatment strategy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UD-CRS-06 </t>
   </si>
   <si>
     <t>UD-SRS-16</t>
@@ -776,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865C1865-B44B-7648-9539-419D8238798C}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -798,7 +789,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>3</v>
@@ -812,10 +803,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -826,10 +817,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -840,10 +831,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -854,10 +845,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -868,13 +859,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -884,10 +875,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -898,10 +889,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -912,10 +903,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -926,10 +917,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -940,10 +931,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -954,10 +945,10 @@
         <v>15</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -968,10 +959,10 @@
         <v>16</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -982,40 +973,34 @@
         <v>17</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>32</v>
-      </c>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -1023,13 +1008,13 @@
     </row>
     <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -1037,13 +1022,13 @@
     </row>
     <row r="18" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -1051,45 +1036,45 @@
     </row>
     <row r="19" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="13"/>
@@ -1097,13 +1082,13 @@
     </row>
     <row r="22" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="13"/>
@@ -1111,13 +1096,13 @@
     </row>
     <row r="23" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
@@ -1125,16 +1110,16 @@
     </row>
     <row r="24" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>

--- a/Technical_Documentation/Requirements/System requirement specification/UD-SRS-traceability.xlsx
+++ b/Technical_Documentation/Requirements/System requirement specification/UD-SRS-traceability.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amaliekoch/Documents/GitHub/ST6/Technical_Documentation/Requirements/System requirement specification/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fie_b\Documents\GitHub\ST6\Technical_Documentation\Requirements\System requirement specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD7C8EB-5689-394E-BD35-D90419BB01B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36332724-8F0D-40CC-AA91-ED8870A754E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="14960" windowHeight="15740" xr2:uid="{B54773BD-5F2B-AF4D-8A1D-6E44CC84DFDA}"/>
+    <workbookView xWindow="1780" yWindow="1780" windowWidth="14400" windowHeight="7360" xr2:uid="{B54773BD-5F2B-AF4D-8A1D-6E44CC84DFDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t xml:space="preserve">SRS ID </t>
   </si>
@@ -157,9 +157,6 @@
     <t xml:space="preserve">UD-CRS-08 </t>
   </si>
   <si>
-    <t xml:space="preserve">Stimulation paradigm recommended in the output from the Udecide system shall be either: "Urge", "Time Limited" or "Constant".  The output of stimulation parameter: "Intensity limit" shall be divided into 5 levels (level 1 = low, level 5 = high) and the output of stimulation parameter "Session time" shall be either: "60 second", "15 minutes", "30 minutes", "4 hours" or "constant". </t>
-  </si>
-  <si>
     <t xml:space="preserve">Post-market-surveillance </t>
   </si>
   <si>
@@ -173,9 +170,6 @@
   </si>
   <si>
     <t>UD-CRS-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The "Choose patient" interface shall include input fields for creating a new patient profile. Those field shall be: "CPR", "Name" and "Sex".  The patient profile shall be stored in the database. </t>
   </si>
   <si>
     <t xml:space="preserve">Additional documentation 
@@ -210,9 +204,6 @@
   </si>
   <si>
     <t>UD-H3</t>
-  </si>
-  <si>
-    <t>The system shall be able to update the algorithm with new data on the research field periodically</t>
   </si>
   <si>
     <t>UD-H4</t>
@@ -237,13 +228,7 @@
  article 17. Used to to secure protection against unauthorised acces. </t>
   </si>
   <si>
-    <t>The Udecide system shall validate the user access is granted</t>
-  </si>
-  <si>
     <t xml:space="preserve">The system shall be able to take inputs to the algorithm entered by the specialist. Those inputs shall be: sex, age, OAB symptoms and data collected from clinical practice  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The algorithm shall be based on data from UCon collected by InnoCon Medical </t>
   </si>
   <si>
     <t xml:space="preserve">The Udecide system shall handle patient data in accordance to general data protection regulation (GDPR) </t>
@@ -256,7 +241,35 @@
     <t xml:space="preserve">The interface shall convey practical information about the treatment to the specialist. </t>
   </si>
   <si>
-    <t>The Udecide system shall consist of four functionalities: login, choose patient,  estimate effectiveness score and report effect</t>
+    <t>UD-H1</t>
+  </si>
+  <si>
+    <t>UD-H2</t>
+  </si>
+  <si>
+    <t>UD-H4
+UD-H5</t>
+  </si>
+  <si>
+    <t>UD-H6</t>
+  </si>
+  <si>
+    <t>The Udecide system shall consist of four functionalities: login, search patient,  estimate effectiveness score and report effect.</t>
+  </si>
+  <si>
+    <t>The system shall be able to update the algorithm with new data on the research field periodically.</t>
+  </si>
+  <si>
+    <t>The algorithm shall be based on data from UCon collected by InnoCon Medical.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stimulation paradigm recommended in the output from the Udecide system shall be either: Urge, Time Limited or Constant.  The output of stimulation parameter Intensity limit shall be divided into 5 levels (level 1 = low, level 5 = high) and the output of stimulation parameter Session time shall be either: 60 seconds, 15 minutes, 30 minutes, 4 hours or constant. </t>
+  </si>
+  <si>
+    <t>The Udecide system shall validate that user access is granted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The "Search patient" interface shall include input fields for creating a new patient profile. Those field shall be: CPR, Name and Gender.  The patient profile shall be stored in the database. </t>
   </si>
 </sst>
 </file>
@@ -399,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -428,14 +441,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -449,6 +457,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -767,166 +781,170 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865C1865-B44B-7648-9539-419D8238798C}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="63" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="36.6640625" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>50</v>
+      <c r="B2" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>51</v>
+      <c r="B5" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" ht="62" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>52</v>
+      <c r="B7" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
@@ -936,25 +954,25 @@
       <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
@@ -964,173 +982,181 @@
       <c r="C13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>65</v>
+      <c r="B14" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="8"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>67</v>
+      <c r="B18" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" ht="170" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="62" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>60</v>
+      <c r="B21" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>61</v>
+      <c r="B22" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>46</v>
+      <c r="B23" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" ht="62" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>64</v>
+      <c r="B24" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
     </row>
   </sheetData>

--- a/Technical_Documentation/Requirements/System requirement specification/UD-SRS-traceability.xlsx
+++ b/Technical_Documentation/Requirements/System requirement specification/UD-SRS-traceability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fie_b\Documents\GitHub\ST6\Technical_Documentation\Requirements\System requirement specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36332724-8F0D-40CC-AA91-ED8870A754E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF648B0-15B1-476C-98F4-D6AAF3EA507C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="1780" windowWidth="14400" windowHeight="7360" xr2:uid="{B54773BD-5F2B-AF4D-8A1D-6E44CC84DFDA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B54773BD-5F2B-AF4D-8A1D-6E44CC84DFDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -215,9 +215,6 @@
 </t>
   </si>
   <si>
-    <t>Patient preferencenses regarding electrode type, shall be an opportunity to input to the Udecide system</t>
-  </si>
-  <si>
     <t xml:space="preserve">The recommended treatment with the least time of stimulation pr. day shall be highlighted on the interface. </t>
   </si>
   <si>
@@ -228,9 +225,6 @@
  article 17. Used to to secure protection against unauthorised acces. </t>
   </si>
   <si>
-    <t xml:space="preserve">The system shall be able to take inputs to the algorithm entered by the specialist. Those inputs shall be: sex, age, OAB symptoms and data collected from clinical practice  </t>
-  </si>
-  <si>
     <t xml:space="preserve">The Udecide system shall handle patient data in accordance to general data protection regulation (GDPR) </t>
   </si>
   <si>
@@ -269,7 +263,13 @@
     <t>The Udecide system shall validate that user access is granted</t>
   </si>
   <si>
-    <t xml:space="preserve">The "Search patient" interface shall include input fields for creating a new patient profile. Those field shall be: CPR, Name and Gender.  The patient profile shall be stored in the database. </t>
+    <t xml:space="preserve">The "Search patient" interface shall include input fields for creating a new patient profile. Those fields shall be: CPR, Name and Gender.  The patient profile shall be stored in the database. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system shall be able to take inputs to the algorithm entered by the specialist. Those inputs shall be: gender, age, OAB symptoms and data collected from clinical practice  </t>
+  </si>
+  <si>
+    <t>Patient preferences regarding electrode type, shall be an opportunity to input to the Udecide system</t>
   </si>
 </sst>
 </file>
@@ -781,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865C1865-B44B-7648-9539-419D8238798C}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="63" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="63" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -845,7 +845,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>18</v>
@@ -866,7 +866,7 @@
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F5" s="10"/>
     </row>
@@ -875,7 +875,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>20</v>
@@ -905,14 +905,14 @@
         <v>11</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F8" s="10"/>
     </row>
@@ -991,7 +991,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>29</v>
@@ -1033,10 +1033,10 @@
         <v>30</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -1047,7 +1047,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>44</v>
@@ -1061,7 +1061,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>39</v>
@@ -1093,7 +1093,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>41</v>
@@ -1107,14 +1107,14 @@
         <v>35</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F22" s="10"/>
     </row>
@@ -1123,7 +1123,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>44</v>
@@ -1137,16 +1137,16 @@
         <v>37</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>60</v>
-      </c>
       <c r="E24" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F24" s="10"/>
     </row>

--- a/Technical_Documentation/Requirements/System requirement specification/UD-SRS-traceability.xlsx
+++ b/Technical_Documentation/Requirements/System requirement specification/UD-SRS-traceability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fie_b\Documents\GitHub\ST6\Technical_Documentation\Requirements\System requirement specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF648B0-15B1-476C-98F4-D6AAF3EA507C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DE265E-E44D-4EC1-A97D-FDC6E7A3C69D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B54773BD-5F2B-AF4D-8A1D-6E44CC84DFDA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{B54773BD-5F2B-AF4D-8A1D-6E44CC84DFDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t xml:space="preserve">SRS ID </t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t xml:space="preserve">Use case </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The information from the output shall be conveyed in medical terms </t>
   </si>
   <si>
     <t>UD-CRS-03
@@ -164,9 +161,6 @@
   </si>
   <si>
     <t>UD-CRS-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Udecide system shall be connected to a database.  </t>
   </si>
   <si>
     <t>UD-CRS-12</t>
@@ -181,26 +175,7 @@
 UD-CRS-07</t>
   </si>
   <si>
-    <t>The interface shall rank the recommended
- treatment strategies from best to least expected effect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The interface shall recommend and visualize three treatment strategies for the specialist </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The predetermined parameters defined by InnoCon Medical shall be shown on the interface. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The user interface "Estimate effectiveness score" shall contain information about stimulation paradigm, parameters and effectiveness score to give the specialist the opportunity to get an overview. </t>
-  </si>
-  <si>
-    <t>The output shall be conveyed through  graphical illustrations</t>
-  </si>
-  <si>
     <t>UD-SRS-15</t>
-  </si>
-  <si>
-    <t>Udecide shall have a range check on the data input from the specialist</t>
   </si>
   <si>
     <t>UD-H3</t>
@@ -215,9 +190,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The recommended treatment with the least time of stimulation pr. day shall be highlighted on the interface. </t>
-  </si>
-  <si>
     <t>H6</t>
   </si>
   <si>
@@ -228,13 +200,6 @@
     <t xml:space="preserve">The Udecide system shall handle patient data in accordance to general data protection regulation (GDPR) </t>
   </si>
   <si>
-    <t>UD-CRS-02 
-UD-CRS-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The interface shall convey practical information about the treatment to the specialist. </t>
-  </si>
-  <si>
     <t>UD-H1</t>
   </si>
   <si>
@@ -251,25 +216,72 @@
     <t>The Udecide system shall consist of four functionalities: login, search patient,  estimate effectiveness score and report effect.</t>
   </si>
   <si>
-    <t>The system shall be able to update the algorithm with new data on the research field periodically.</t>
-  </si>
-  <si>
-    <t>The algorithm shall be based on data from UCon collected by InnoCon Medical.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stimulation paradigm recommended in the output from the Udecide system shall be either: Urge, Time Limited or Constant.  The output of stimulation parameter Intensity limit shall be divided into 5 levels (level 1 = low, level 5 = high) and the output of stimulation parameter Session time shall be either: 60 seconds, 15 minutes, 30 minutes, 4 hours or constant. </t>
-  </si>
-  <si>
-    <t>The Udecide system shall validate that user access is granted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The "Search patient" interface shall include input fields for creating a new patient profile. Those fields shall be: CPR, Name and Gender.  The patient profile shall be stored in the database. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall be able to take inputs to the algorithm entered by the specialist. Those inputs shall be: gender, age, OAB symptoms and data collected from clinical practice  </t>
-  </si>
-  <si>
-    <t>Patient preferences regarding electrode type, shall be an opportunity to input to the Udecide system</t>
+    <t xml:space="preserve">The UDecide system shall recommend and visualize three treatment strategies for the specialist </t>
+  </si>
+  <si>
+    <t>The Udecide system shall rank the recommended treatment strategies from best to least expected effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The interface shall convey cautionary notes about the treatment to the specialist. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each recommended treatment strategy shall contain information about stimulation paradigm, parameters and effectiveness score to give the specialist the opportunity to get an overview. </t>
+  </si>
+  <si>
+    <t>The UDecide system shall be able to update the algorithm with new data on the research field periodically.</t>
+  </si>
+  <si>
+    <t>Information on the actual use of UCon shall be conveyed through graphical illustrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The questionnaire and the subsequent recommendation shall be conveyed in medical terms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system shall be able to take inputs to the algorithm entered by the specialist. Those inputs shall be: gender, age, number of incontinence episodes, number of daily urinations, nocturia, number of urgency episodes, bladder capacity, detrusor overactivity and quality of life.  </t>
+  </si>
+  <si>
+    <t>The Udecide system shall have a range check on the data input from the specialist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stimulation paradigm recommended in the output from the Udecide system shall be either: urge, time limited or constant, and the recommended session time shall be either: 60 seconds, 15 minutes, 30 minutes, 4 hours or constant. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Udecide system shall be connected to a cloud-based database.  </t>
+  </si>
+  <si>
+    <t>Patient preferences regarding electrode type, shall be possible to input in  the Udecide system</t>
+  </si>
+  <si>
+    <t>The recommended treatment with the least time of stimulation pr. day shall be highlighted in the recommendation.</t>
+  </si>
+  <si>
+    <t>The patient profile interface shall include input fields for creating a new patient profile. Those fields shall be: CPR, name, age and gender.</t>
+  </si>
+  <si>
+    <t>The Udecide system shall only grant access for validated users.</t>
+  </si>
+  <si>
+    <t>The patient profile, questionnaire, chosen treatment and treatment effect shall be stored in the database.</t>
+  </si>
+  <si>
+    <t>The Udecide system shall be able to calculate an effectiveness score based on inputs regarding symptoms before and after treatment.</t>
+  </si>
+  <si>
+    <t>UD-SRS-14</t>
+  </si>
+  <si>
+    <t>UD-CRS-06
+UD-CRS-07</t>
+  </si>
+  <si>
+    <t>OBS! ER identisk med CRS-09</t>
+  </si>
+  <si>
+    <t>UD-CRS-12
+UD-CRS-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The predetermined stimulation parameters defined by InnoCon Medical shall be shown on the interface. </t>
   </si>
 </sst>
 </file>
@@ -319,41 +331,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -378,10 +361,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -391,19 +374,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <top style="thin">
         <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -412,21 +386,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -435,36 +418,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865C1865-B44B-7648-9539-419D8238798C}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="63" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -793,371 +768,394 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="62" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="62" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="93" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="62" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="62" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="62" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="D19" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" ht="62" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="D20" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" ht="62" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="C24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:6" ht="62" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="10"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
